--- a/Documentos/diagrams/database/dicionario.xlsx
+++ b/Documentos/diagrams/database/dicionario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eusou\Desktop\projeto final\QUICKWORK\Documentos\diagrams\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iade-my.sharepoint.com/personal/20211206_iade_pt/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B1A9699-C0A2-411A-B4C5-0F88CD8DB24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{9432F559-79EB-4015-838F-78AD370E2E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF3FFF0C-67FA-429C-928A-A7612A8A1A84}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FB7D4E63-3DAB-480E-8604-9CE8EAE13760}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>Descrição</t>
   </si>
@@ -159,6 +159,138 @@
   </si>
   <si>
     <t xml:space="preserve">Chave estrangeira dos utilizadores </t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>Trabalho</t>
+  </si>
+  <si>
+    <t>work_loc</t>
+  </si>
+  <si>
+    <t>work_pricehr</t>
+  </si>
+  <si>
+    <t>work_tip</t>
+  </si>
+  <si>
+    <t>work_starting</t>
+  </si>
+  <si>
+    <t>work_finished</t>
+  </si>
+  <si>
+    <t>work_wt_id</t>
+  </si>
+  <si>
+    <t>Localização geografica do trabalho</t>
+  </si>
+  <si>
+    <t>preço hora escolhido pelo utilizador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT </t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>Gorjeta escolhida pelo utilizador</t>
+  </si>
+  <si>
+    <t>data do inicio de trabalho</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>data em que o trabalho acabou</t>
+  </si>
+  <si>
+    <t>Id do tipo de trabalho</t>
+  </si>
+  <si>
+    <t>work_state</t>
+  </si>
+  <si>
+    <t>estado em que o trabalho se encontra</t>
+  </si>
+  <si>
+    <t>ws_work_id</t>
+  </si>
+  <si>
+    <t>ws_state_id</t>
+  </si>
+  <si>
+    <t>Id do trabalho</t>
+  </si>
+  <si>
+    <t>Id do estado</t>
+  </si>
+  <si>
+    <t>_state</t>
+  </si>
+  <si>
+    <t>Estado do trabalho</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>Nome do estado</t>
+  </si>
+  <si>
+    <t>worktype</t>
+  </si>
+  <si>
+    <t>Tipo de trabalho</t>
+  </si>
+  <si>
+    <t>wt_name</t>
+  </si>
+  <si>
+    <t>wt_avgprice_hr</t>
+  </si>
+  <si>
+    <t>Nome do trabalho</t>
+  </si>
+  <si>
+    <t>preço hora recomentado</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>rating que um utilizador dará a outro</t>
+  </si>
+  <si>
+    <t>rating_comment</t>
+  </si>
+  <si>
+    <t>commentario que o utilizador poderá deixar</t>
+  </si>
+  <si>
+    <t>rating_rat</t>
+  </si>
+  <si>
+    <t>rating do utilizador entre 1 e 5</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>rating_usr1_id</t>
+  </si>
+  <si>
+    <t>rating_usr2_id</t>
+  </si>
+  <si>
+    <t>utilizador a dar o rating</t>
+  </si>
+  <si>
+    <t>utilizador a receber rating</t>
   </si>
 </sst>
 </file>
@@ -632,17 +764,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C1BA9E-8D09-48F9-99D8-1EACD552EA17}">
-  <dimension ref="C4:K21"/>
+  <dimension ref="C4:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
@@ -899,7 +1031,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
@@ -911,25 +1043,39 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
         <v>1</v>
       </c>
@@ -942,13 +1088,305 @@
       <c r="F21" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="H21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="H22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="H23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="H29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="H30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6">
+        <v>255</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:K4"/>
